--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Manufacture_Date_metadata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Manufacture_Date_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T04_M2_D2_MDM_Metadata_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5155A14D-F95E-4901-AAB4-5C1468DAE89F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFC8FE0-8C0F-42EE-AC27-748B3517A2B3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{4B7CB9F8-0F69-4A60-AE9B-3CE4E5C4380E}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Manufacture_Month_Abbreviation</t>
   </si>
   <si>
-    <t>Manufacture_KEY</t>
-  </si>
-  <si>
     <t>Manufacture_Day_Of_Year</t>
   </si>
   <si>
@@ -181,13 +178,16 @@
   </si>
   <si>
     <t>The Vehicle manufacture Year in CCYY format</t>
+  </si>
+  <si>
+    <t>Manufacture_KEY   &lt;PK&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,11 +225,6 @@
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -325,31 +320,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -669,14 +664,14 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6328125" style="7" customWidth="1"/>
     <col min="2" max="2" width="22" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -695,235 +690,235 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="14">
         <v>1997</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="B16" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="C16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="C17" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="16">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8">
-        <v>3000</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="C18" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="16">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="9" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="18">
+        <v>35431</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="12">
-        <v>35431</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
